--- a/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -310,18 +310,6 @@
   </si>
   <si>
     <t>9840051033</t>
-  </si>
-  <si>
-    <t>9840060158</t>
-  </si>
-  <si>
-    <t>9840001313</t>
-  </si>
-  <si>
-    <t>9840053258</t>
-  </si>
-  <si>
-    <t>9840078219</t>
   </si>
   <si>
     <t>9840056543</t>
@@ -343,8 +331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +357,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -447,7 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,93 +710,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -826,139 +805,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -972,31 +951,31 @@
       <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1005,43 +984,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1071,20 +1050,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="0">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" t="s" s="0">
+      <c r="AN2" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" t="s" s="0">
-        <v>103</v>
+      <c r="AO2" t="s">
+        <v>99</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>75</v>
@@ -1146,28 +1125,28 @@
       <c r="C3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>101</v>
+      <c r="F3" t="s">
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1179,7 +1158,7 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1193,7 +1172,7 @@
       <c r="C4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1202,16 +1181,16 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1223,8 +1202,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1237,28 +1216,28 @@
       <c r="C5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1270,8 +1249,8 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>48</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1285,31 +1264,31 @@
       <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1318,8 +1297,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1332,13 +1311,13 @@
       <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1347,16 +1326,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1365,8 +1344,8 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
-        <v>48</v>
+      <c r="O7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
@@ -1379,31 +1358,31 @@
       <c r="C8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>102</v>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1412,7 +1391,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
+      <c r="O8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1426,7 +1405,7 @@
       <c r="C9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1435,19 +1414,19 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1456,8 +1435,8 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>48</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1470,31 +1449,31 @@
       <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>104</v>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1503,7 +1482,7 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s" s="0">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1517,31 +1496,31 @@
       <c r="C11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>86</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1550,8 +1529,8 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>48</v>
+      <c r="O11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
@@ -1564,7 +1543,7 @@
       <c r="C12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1573,19 +1552,19 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1594,8 +1573,8 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1608,31 +1587,31 @@
       <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1641,8 +1620,8 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s" s="0">
-        <v>48</v>
+      <c r="O13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
@@ -1655,7 +1634,7 @@
       <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1664,19 +1643,19 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1685,8 +1664,8 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>48</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1699,31 +1678,31 @@
       <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>105</v>
+      <c r="F15" t="s">
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>82</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1732,7 +1711,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s" s="0">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1746,7 +1725,7 @@
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1755,19 +1734,19 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>83</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>86</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1776,8 +1755,8 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>48</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1790,7 +1769,7 @@
       <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1799,19 +1778,19 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>84</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1820,8 +1799,8 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s" s="0">
-        <v>48</v>
+      <c r="O17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1834,7 +1813,7 @@
       <c r="C18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1843,19 +1822,19 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>85</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1864,8 +1843,8 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s" s="0">
-        <v>48</v>
+      <c r="O18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="119">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -325,12 +325,64 @@
   </si>
   <si>
     <t>9840029033</t>
+  </si>
+  <si>
+    <t>9840072974</t>
+  </si>
+  <si>
+    <t>9840067309</t>
+  </si>
+  <si>
+    <t>9840004187</t>
+  </si>
+  <si>
+    <t>9840015195</t>
+  </si>
+  <si>
+    <t>9840064524</t>
+  </si>
+  <si>
+    <t>9840057900</t>
+  </si>
+  <si>
+    <t>9840063447</t>
+  </si>
+  <si>
+    <t>9840043010</t>
+  </si>
+  <si>
+    <t>9840067881</t>
+  </si>
+  <si>
+    <t>9840012679</t>
+  </si>
+  <si>
+    <t>9840089552</t>
+  </si>
+  <si>
+    <t>9840077695</t>
+  </si>
+  <si>
+    <t>9840001205</t>
+  </si>
+  <si>
+    <t>9840003702</t>
+  </si>
+  <si>
+    <t>9840058190</t>
+  </si>
+  <si>
+    <t>9840028942</t>
+  </si>
+  <si>
+    <t>9840052972</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,87 +768,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="42" max="43" customWidth="true" width="15.26953125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="45" max="46" customWidth="true" width="11.453125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="48" max="54" customWidth="true" width="11.453125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -805,139 +857,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -951,31 +1003,31 @@
       <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>90</v>
+      <c r="F2" t="s" s="0">
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -984,43 +1036,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1050,19 +1102,19 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="0">
         <v>0</v>
       </c>
-      <c r="AN2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AN2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>99</v>
       </c>
       <c r="AP2" s="8" t="s">
@@ -1125,28 +1177,28 @@
       <c r="C3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>97</v>
+      <c r="F3" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1158,7 +1210,7 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1172,25 +1224,28 @@
       <c r="C4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s" s="0">
+        <v>104</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1202,7 +1257,7 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1216,28 +1271,28 @@
       <c r="C5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>93</v>
+      <c r="F5" t="s" s="0">
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1249,7 +1304,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1264,31 +1319,31 @@
       <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>91</v>
+      <c r="F6" t="s" s="0">
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1297,7 +1352,7 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1311,14 +1366,14 @@
       <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>95</v>
+      <c r="F7" t="s" s="0">
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1326,16 +1381,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1344,7 +1399,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1358,31 +1413,31 @@
       <c r="C8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>98</v>
+      <c r="F8" t="s" s="0">
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1391,7 +1446,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1405,28 +1460,31 @@
       <c r="C9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>109</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1435,7 +1493,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1449,31 +1507,31 @@
       <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>100</v>
+      <c r="F10" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1482,7 +1540,7 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1496,31 +1554,31 @@
       <c r="C11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
+      <c r="F11" t="s" s="0">
+        <v>111</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>86</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1529,7 +1587,7 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1543,28 +1601,31 @@
       <c r="C12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>112</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1573,7 +1634,7 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1587,31 +1648,31 @@
       <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>96</v>
+      <c r="F13" t="s" s="0">
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1620,7 +1681,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1634,28 +1695,31 @@
       <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1664,7 +1728,7 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1678,31 +1742,31 @@
       <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>101</v>
+      <c r="F15" t="s" s="0">
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1711,7 +1775,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1725,28 +1789,31 @@
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F16" t="s" s="0">
+        <v>116</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>86</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1755,7 +1822,7 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1769,28 +1836,31 @@
       <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F17" t="s" s="0">
+        <v>117</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1799,7 +1869,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1813,28 +1883,31 @@
       <c r="C18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="s" s="0">
+        <v>118</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1843,7 +1916,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="136">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -376,6 +376,57 @@
   </si>
   <si>
     <t>9840052972</t>
+  </si>
+  <si>
+    <t>9840042333</t>
+  </si>
+  <si>
+    <t>9840020897</t>
+  </si>
+  <si>
+    <t>9840047140</t>
+  </si>
+  <si>
+    <t>9840062618</t>
+  </si>
+  <si>
+    <t>9840005918</t>
+  </si>
+  <si>
+    <t>9840079327</t>
+  </si>
+  <si>
+    <t>9840083674</t>
+  </si>
+  <si>
+    <t>9840099411</t>
+  </si>
+  <si>
+    <t>9840076574</t>
+  </si>
+  <si>
+    <t>9840081268</t>
+  </si>
+  <si>
+    <t>9840055368</t>
+  </si>
+  <si>
+    <t>9840065448</t>
+  </si>
+  <si>
+    <t>9840035112</t>
+  </si>
+  <si>
+    <t>9840017534</t>
+  </si>
+  <si>
+    <t>9840023026</t>
+  </si>
+  <si>
+    <t>9840046501</t>
+  </si>
+  <si>
+    <t>9840085966</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1112,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>99</v>
@@ -1184,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1231,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1278,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1326,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1373,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1420,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1467,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1514,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1561,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1608,7 +1659,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1655,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1702,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1749,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1796,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1843,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1890,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC032_WF_RRYN_OneN_TwoYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,93 +291,12 @@
     <t>WF_RRYN_OneN_TwoYN</t>
   </si>
   <si>
-    <t>9840031328</t>
-  </si>
-  <si>
-    <t>9840072647</t>
-  </si>
-  <si>
-    <t>9840021884</t>
-  </si>
-  <si>
-    <t>9840036424</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840052635</t>
-  </si>
-  <si>
-    <t>9840051033</t>
-  </si>
-  <si>
-    <t>9840056543</t>
-  </si>
-  <si>
-    <t>9840018803</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840047749</t>
-  </si>
-  <si>
-    <t>9840029033</t>
-  </si>
-  <si>
-    <t>9840072974</t>
-  </si>
-  <si>
-    <t>9840067309</t>
-  </si>
-  <si>
-    <t>9840004187</t>
-  </si>
-  <si>
-    <t>9840015195</t>
-  </si>
-  <si>
-    <t>9840064524</t>
-  </si>
-  <si>
-    <t>9840057900</t>
-  </si>
-  <si>
-    <t>9840063447</t>
-  </si>
-  <si>
-    <t>9840043010</t>
-  </si>
-  <si>
-    <t>9840067881</t>
-  </si>
-  <si>
-    <t>9840012679</t>
-  </si>
-  <si>
-    <t>9840089552</t>
-  </si>
-  <si>
-    <t>9840077695</t>
-  </si>
-  <si>
-    <t>9840001205</t>
-  </si>
-  <si>
-    <t>9840003702</t>
-  </si>
-  <si>
-    <t>9840058190</t>
-  </si>
-  <si>
-    <t>9840028942</t>
-  </si>
-  <si>
-    <t>9840052972</t>
-  </si>
-  <si>
     <t>9840042333</t>
   </si>
   <si>
@@ -427,6 +346,12 @@
   </si>
   <si>
     <t>9840085966</t>
+  </si>
+  <si>
+    <t>9840063821</t>
+  </si>
+  <si>
+    <t>9840008229</t>
   </si>
 </sst>
 </file>
@@ -813,59 +738,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1044,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1088,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1163,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>75</v>
@@ -1218,7 +1143,7 @@
       </c>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1265,7 +1190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1309,10 +1234,10 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1356,11 +1281,11 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1404,10 +1329,10 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1451,10 +1376,10 @@
         <v>45</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1498,10 +1423,10 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1548,7 +1473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1592,10 +1517,10 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1639,10 +1564,10 @@
         <v>50</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1686,10 +1611,10 @@
         <v>51</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1706,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1733,10 +1658,10 @@
         <v>45</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1780,10 +1705,10 @@
         <v>52</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1725,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1827,10 +1752,10 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1847,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1874,10 +1799,10 @@
         <v>51</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1921,10 +1846,10 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -1968,7 +1893,7 @@
         <v>52</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
